--- a/newDutyRate.xlsx
+++ b/newDutyRate.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="219">
   <si>
     <t>Item Name</t>
   </si>
@@ -332,160 +332,169 @@
     <t>发票及项号</t>
   </si>
   <si>
-    <t>24HC01713-9D_32,24HC01713-10D_30,24HC01713-11D_29,24HC01713-12D_29,24HC01713-13D_30,24HC01713-14D_29</t>
-  </si>
-  <si>
-    <t>24HC01713-9D_27,24HC01713-10D_25,24HC01713-11D_24,24HC01713-12D_24,24HC01713-13D_25,24HC01713-14D_24</t>
-  </si>
-  <si>
-    <t>24HC01713-5D_24,24HC01713-9D_28,24HC01713-10D_26,24HC01713-11D_25,24HC01713-12D_25,24HC01713-13D_26,24HC01713-14D_25,24HC01713-15D_22,24HC01713-16D_22,24HC01713-17D_22,24HC01713-18D_23,24HC01713-19D_22,24HC01713-20D_22,24HC01713-21D_22,24HC01713-22D_22,24HC01713-23D_22</t>
-  </si>
-  <si>
-    <t>24HC01713-5D_15,24HC01713-15D_13,24HC01713-16D_13,24HC01713-17D_13,24HC01713-18D_14,24HC01713-19D_13,24HC01713-20D_13,24HC01713-21D_13,24HC01713-22D_13,24HC01713-23D_13</t>
-  </si>
-  <si>
-    <t>24HC01713-5D_19,24HC01713-15D_17,24HC01713-16D_17,24HC01713-17D_17,24HC01713-18D_18,24HC01713-19D_17,24HC01713-20D_17,24HC01713-21D_17,24HC01713-22D_17,24HC01713-23D_17</t>
-  </si>
-  <si>
-    <t>24HC01713-9D_16,24HC01713-10D_14,24HC01713-11D_13,24HC01713-12D_13,24HC01713-13D_14,24HC01713-14D_13,24HC01713-24D_21,24HC01713-25D_21,24HC01713-26D_21</t>
-  </si>
-  <si>
-    <t>24HC01713-5D_2,24HC01713-15D_1,24HC01713-16D_1,24HC01713-17D_1,24HC01713-18D_2,24HC01713-19D_2,24HC01713-20D_2,24HC01713-21D_2,24HC01713-22D_2,24HC01713-23D_2</t>
-  </si>
-  <si>
-    <t>24HC01713-6D_6,24HC01713-7D_7,24HC01713-8D_6</t>
-  </si>
-  <si>
-    <t>24HC01713-24D_63,24HC01713-25D_63,24HC01713-26D_63</t>
-  </si>
-  <si>
-    <t>24HC01713-6D_11,24HC01713-24D_14,24HC01713-25D_14,24HC01713-26D_14</t>
-  </si>
-  <si>
-    <t>24HC01713-24D_17,24HC01713-25D_17,24HC01713-26D_17</t>
-  </si>
-  <si>
-    <t>24HC01713-5D_18,24HC01713-15D_16,24HC01713-16D_16,24HC01713-17D_16,24HC01713-18D_17,24HC01713-19D_16,24HC01713-20D_16,24HC01713-21D_16,24HC01713-22D_16,24HC01713-23D_16</t>
-  </si>
-  <si>
-    <t>24HC01713-24D_20,24HC01713-25D_20,24HC01713-26D_20</t>
-  </si>
-  <si>
-    <t>24HC01713-9D_21,24HC01713-10D_19,24HC01713-11D_18,24HC01713-12D_18,24HC01713-13D_19,24HC01713-14D_18,24HC01713-24D_30,24HC01713-25D_30,24HC01713-26D_30</t>
-  </si>
-  <si>
-    <t>24HC01713-5D_3,24HC01713-15D_2,24HC01713-16D_2,24HC01713-17D_2,24HC01713-18D_3,24HC01713-19D_3,24HC01713-20D_3,24HC01713-21D_3,24HC01713-22D_3,24HC01713-23D_3</t>
-  </si>
-  <si>
-    <t>24HC01713-1S_63,24HC01713-2S_63,24HC01713-3S_54,24HC01713-4S_54</t>
-  </si>
-  <si>
-    <t>24HC01713-7D_10,24HC01713-8D_9</t>
-  </si>
-  <si>
-    <t>24HC01713-5D_14,24HC01713-15D_12,24HC01713-16D_12,24HC01713-17D_12,24HC01713-18D_13,24HC01713-19D_12,24HC01713-20D_12,24HC01713-21D_12,24HC01713-22D_12,24HC01713-23D_12</t>
-  </si>
-  <si>
-    <t>24HC01713-24D_57,24HC01713-25D_57,24HC01713-26D_57</t>
-  </si>
-  <si>
-    <t>24HC01713-6D_28</t>
-  </si>
-  <si>
-    <t>24HC01713-5D_23,24HC01713-7D_9,24HC01713-8D_8,24HC01713-9D_10,24HC01713-15D_21,24HC01713-16D_21,24HC01713-17D_21,24HC01713-18D_22,24HC01713-19D_21,24HC01713-20D_21,24HC01713-21D_21,24HC01713-22D_21,24HC01713-23D_21,24HC01713-24D_26,24HC01713-25D_26,24HC01713-26D_26</t>
-  </si>
-  <si>
-    <t>24HC01713-7D_3</t>
-  </si>
-  <si>
-    <t>24HC01713-24D_15,24HC01713-25D_15,24HC01713-26D_15</t>
-  </si>
-  <si>
-    <t>24HC01713-5D_40,24HC01713-15D_38,24HC01713-16D_38,24HC01713-17D_38,24HC01713-18D_39,24HC01713-19D_38,24HC01713-20D_38,24HC01713-21D_38,24HC01713-22D_38,24HC01713-23D_38</t>
-  </si>
-  <si>
-    <t>24HC01713-5D_32,24HC01713-15D_30,24HC01713-16D_30,24HC01713-17D_30,24HC01713-18D_31,24HC01713-19D_30,24HC01713-20D_30,24HC01713-21D_30,24HC01713-22D_30,24HC01713-23D_30</t>
-  </si>
-  <si>
-    <t>24HC01713-6D_21,24HC01713-7D_18,24HC01713-8D_18</t>
-  </si>
-  <si>
-    <t>24HC01713-5D_33,24HC01713-15D_31,24HC01713-16D_31,24HC01713-17D_31,24HC01713-18D_32,24HC01713-19D_31,24HC01713-20D_31,24HC01713-21D_31,24HC01713-22D_31,24HC01713-23D_31</t>
-  </si>
-  <si>
-    <t>24HC01713-6D_7</t>
-  </si>
-  <si>
-    <t>24HC01713-9D_14,24HC01713-10D_12,24HC01713-11D_11,24HC01713-12D_11,24HC01713-13D_12,24HC01713-14D_11,24HC01713-24D_10,24HC01713-25D_10,24HC01713-26D_10</t>
-  </si>
-  <si>
-    <t>24HC01713-5D_13,24HC01713-15D_11,24HC01713-16D_11,24HC01713-17D_11,24HC01713-18D_12,24HC01713-19D_11,24HC01713-20D_11,24HC01713-21D_11,24HC01713-22D_11,24HC01713-23D_11</t>
-  </si>
-  <si>
-    <t>24HC01713-7D_2,24HC01713-8D_2</t>
-  </si>
-  <si>
-    <t>24HC01713-9D_11,24HC01713-10D_9,24HC01713-11D_8,24HC01713-12D_8,24HC01713-13D_9,24HC01713-14D_8</t>
-  </si>
-  <si>
-    <t>24HC01713-5D_34,24HC01713-6D_22,24HC01713-7D_19,24HC01713-8D_19,24HC01713-9D_40,24HC01713-10D_38,24HC01713-11D_37,24HC01713-12D_37,24HC01713-13D_38,24HC01713-14D_37,24HC01713-15D_32,24HC01713-16D_32,24HC01713-17D_32,24HC01713-18D_33,24HC01713-19D_32,24HC01713-20D_32,24HC01713-21D_32,24HC01713-22D_32,24HC01713-23D_32,24HC01713-24D_47,24HC01713-25D_47,24HC01713-26D_47</t>
-  </si>
-  <si>
-    <t>24HC01713-9D_8,24HC01713-10D_7,24HC01713-11D_6,24HC01713-12D_6,24HC01713-13D_7,24HC01713-14D_6</t>
-  </si>
-  <si>
-    <t>24HC01713-9D_17,24HC01713-10D_15,24HC01713-11D_14,24HC01713-12D_14,24HC01713-13D_15,24HC01713-14D_14</t>
-  </si>
-  <si>
-    <t>24HC01713-9D_30,24HC01713-10D_28,24HC01713-11D_27,24HC01713-12D_27,24HC01713-13D_28,24HC01713-14D_27,24HC01713-24D_40,24HC01713-25D_40,24HC01713-26D_40</t>
-  </si>
-  <si>
-    <t>24HC01713-5D_11,24HC01713-15D_9,24HC01713-16D_9,24HC01713-17D_9,24HC01713-18D_10,24HC01713-19D_9,24HC01713-20D_9,24HC01713-21D_9,24HC01713-22D_9,24HC01713-23D_9,24HC01713-24D_9,24HC01713-25D_9,24HC01713-26D_9</t>
-  </si>
-  <si>
-    <t>24HC01713-5D_22,24HC01713-15D_20,24HC01713-16D_20,24HC01713-17D_20,24HC01713-18D_21,24HC01713-19D_20,24HC01713-20D_20,24HC01713-21D_20,24HC01713-22D_20,24HC01713-23D_20</t>
-  </si>
-  <si>
-    <t>24HC01713-6D_12,24HC01713-7D_12,24HC01713-8D_11</t>
-  </si>
-  <si>
-    <t>24HC01713-9D_13,24HC01713-10D_11,24HC01713-11D_10,24HC01713-12D_10,24HC01713-13D_11,24HC01713-14D_10,24HC01713-24D_27,24HC01713-25D_27,24HC01713-26D_27</t>
-  </si>
-  <si>
-    <t>24HC01713-6D_37</t>
-  </si>
-  <si>
-    <t>24HC01713-5D_39,24HC01713-9D_48,24HC01713-10D_46,24HC01713-11D_45,24HC01713-12D_45,24HC01713-13D_46,24HC01713-14D_45,24HC01713-15D_37,24HC01713-16D_37,24HC01713-17D_37,24HC01713-18D_38,24HC01713-19D_37,24HC01713-20D_37,24HC01713-21D_37,24HC01713-22D_37,24HC01713-23D_37,24HC01713-24D_51,24HC01713-25D_51,24HC01713-26D_51</t>
-  </si>
-  <si>
-    <t>24HC01713-24D_34,24HC01713-25D_34,24HC01713-26D_34</t>
-  </si>
-  <si>
-    <t>24HC01713-6D_8</t>
-  </si>
-  <si>
-    <t>24HC01713-6D_10</t>
-  </si>
-  <si>
-    <t>24HC01713-24D_13,24HC01713-25D_13,24HC01713-26D_13</t>
-  </si>
-  <si>
-    <t>24HC01713-24D_11,24HC01713-25D_11,24HC01713-26D_11</t>
-  </si>
-  <si>
-    <t>24HC01713-5D_43,24HC01713-6D_26,24HC01713-7D_26,24HC01713-8D_26,24HC01713-9D_52,24HC01713-10D_50,24HC01713-11D_49,24HC01713-12D_49,24HC01713-13D_50,24HC01713-14D_49,24HC01713-15D_41,24HC01713-16D_41,24HC01713-17D_41,24HC01713-18D_42,24HC01713-19D_41,24HC01713-20D_41,24HC01713-21D_41,24HC01713-22D_41,24HC01713-23D_41,24HC01713-24D_61,24HC01713-25D_61,24HC01713-26D_61</t>
-  </si>
-  <si>
-    <t>24HC01713-1S_93,24HC01713-2S_95,24HC01713-3S_83,24HC01713-4S_83</t>
-  </si>
-  <si>
-    <t>24HC01713-5D_6,24HC01713-15D_5,24HC01713-16D_5,24HC01713-17D_5,24HC01713-18D_5,24HC01713-19D_5,24HC01713-20D_5,24HC01713-21D_5,24HC01713-22D_5,24HC01713-23D_5</t>
-  </si>
-  <si>
-    <t>24HC01713-9D_39,24HC01713-10D_37,24HC01713-11D_36,24HC01713-12D_36,24HC01713-13D_37,24HC01713-14D_36</t>
-  </si>
-  <si>
-    <t>24HC01713-9D_29,24HC01713-10D_27,24HC01713-11D_26,24HC01713-12D_26,24HC01713-13D_27,24HC01713-14D_26</t>
+    <t>Sheet1_184750</t>
+  </si>
+  <si>
+    <t>Sheet1_240667</t>
+  </si>
+  <si>
+    <t>Sheet1_262250</t>
+  </si>
+  <si>
+    <t>Sheet1_264250</t>
+  </si>
+  <si>
+    <t>Sheet1_684510</t>
+  </si>
+  <si>
+    <t>Sheet1_708510</t>
+  </si>
+  <si>
+    <t>Sheet1_716510</t>
+  </si>
+  <si>
+    <t>Sheet1_2590000</t>
+  </si>
+  <si>
+    <t>Sheet1_1128000</t>
+  </si>
+  <si>
+    <t>Sheet1_17698247</t>
+  </si>
+  <si>
+    <t>24HC01723-12S _66,24HC01723-13S_68,24HC01723-14S  _69,24HC01723-15S  _69</t>
+  </si>
+  <si>
+    <t>24HC01723-17D_30,24HC01723-20D  _30,24HC01723-21D_30,24HC01723-22D_30,24HC01723-23D_30</t>
+  </si>
+  <si>
+    <t>24HC01723-17D_25,24HC01723-18D_31,24HC01723-19D_31,24HC01723-20D  _25,24HC01723-21D_25,24HC01723-22D_25,24HC01723-23D_25,24HC01723-25D_31</t>
+  </si>
+  <si>
+    <t>24HC01723-17D_26,24HC01723-18D_29,24HC01723-19D_29,24HC01723-20D  _26,24HC01723-21D_26,24HC01723-22D_26,24HC01723-23D_26,24HC01723-25D_29</t>
+  </si>
+  <si>
+    <t>24HC01723-17D_14,24HC01723-18D_13,24HC01723-19D_13,24HC01723-20D  _14,24HC01723-21D_14,24HC01723-22D_14,24HC01723-23D_14,24HC01723-24D _21,24HC01723-25D_13</t>
+  </si>
+  <si>
+    <t>24HC01723-24D _62</t>
+  </si>
+  <si>
+    <t>24HC01723-18D_15,24HC01723-19D_15,24HC01723-24D _15,24HC01723-25D_15</t>
+  </si>
+  <si>
+    <t>24HC01723-24D _20</t>
+  </si>
+  <si>
+    <t>24HC01723-17D_19,24HC01723-20D  _19,24HC01723-21D_19,24HC01723-22D_19,24HC01723-23D_19,24HC01723-24D _30</t>
+  </si>
+  <si>
+    <t>24HC01723-9S _39,24HC01723-10S _39,24HC01723-11S  _39</t>
+  </si>
+  <si>
+    <t>24HC01723-2S _38,24HC01723-3S_38,24HC01723-4S _38,24HC01723-5S _38,24HC01723-6S _39,24HC01723-7S _39,24HC01723-8S  _39,24HC01723-9S _40,24HC01723-10S _40,24HC01723-11S  _40</t>
+  </si>
+  <si>
+    <t>24HC01723-1S_29,24HC01723-2S _39,24HC01723-3S_40,24HC01723-4S _40,24HC01723-5S _40,24HC01723-6S _41,24HC01723-7S _41,24HC01723-8S  _41,24HC01723-9S _42,24HC01723-10S _42,24HC01723-11S  _42,24HC01723-12S _31,24HC01723-13S_33,24HC01723-14S  _34,24HC01723-15S  _34,24HC01723-16S  _23</t>
+  </si>
+  <si>
+    <t>24HC01723-24D _56</t>
+  </si>
+  <si>
+    <t>24HC01723-16S  _24</t>
+  </si>
+  <si>
+    <t>24HC01723-18D_36,24HC01723-19D_36,24HC01723-25D_36</t>
+  </si>
+  <si>
+    <t>24HC01723-2S _56,24HC01723-3S_57,24HC01723-4S _57,24HC01723-5S _57,24HC01723-6S _58,24HC01723-7S _58,24HC01723-8S  _58,24HC01723-9S _59,24HC01723-10S _59,24HC01723-11S  _59,24HC01723-12S _48,24HC01723-13S_50,24HC01723-14S  _51,24HC01723-15S  _51</t>
+  </si>
+  <si>
+    <t>24HC01723-16S  _29</t>
+  </si>
+  <si>
+    <t>24HC01723-17D_8,24HC01723-18D_16,24HC01723-19D_16,24HC01723-20D  _8,24HC01723-21D_8,24HC01723-22D_8,24HC01723-23D_8,24HC01723-24D _26,24HC01723-25D_16</t>
+  </si>
+  <si>
+    <t>24HC01723-24D _16</t>
+  </si>
+  <si>
+    <t>24HC01723-17D_12,24HC01723-20D  _12,24HC01723-21D_12,24HC01723-22D_12,24HC01723-23D_12,24HC01723-24D _11</t>
+  </si>
+  <si>
+    <t>24HC01723-18D_12,24HC01723-19D_12,24HC01723-25D_12</t>
+  </si>
+  <si>
+    <t>24HC01723-17D_9,24HC01723-20D  _9,24HC01723-21D_9,24HC01723-22D_9,24HC01723-23D_9</t>
+  </si>
+  <si>
+    <t>24HC01723-18D_14,24HC01723-19D_14,24HC01723-25D_14</t>
+  </si>
+  <si>
+    <t>24HC01723-17D_38,24HC01723-18D_40,24HC01723-19D_40,24HC01723-20D  _38,24HC01723-21D_38,24HC01723-22D_38,24HC01723-23D_38,24HC01723-24D _46,24HC01723-25D_40</t>
+  </si>
+  <si>
+    <t>24HC01723-17D_6,24HC01723-18D_9,24HC01723-19D_9,24HC01723-20D  _6,24HC01723-21D_6,24HC01723-22D_6,24HC01723-23D_6,24HC01723-25D_9</t>
+  </si>
+  <si>
+    <t>24HC01723-17D_15,24HC01723-18D_18,24HC01723-19D_18,24HC01723-20D  _15,24HC01723-21D_15,24HC01723-22D_15,24HC01723-23D_15,24HC01723-25D_18</t>
+  </si>
+  <si>
+    <t>24HC01723-17D_28,24HC01723-18D_30,24HC01723-19D_30,24HC01723-20D  _28,24HC01723-21D_28,24HC01723-22D_28,24HC01723-23D_28,24HC01723-24D _40,24HC01723-25D_30</t>
+  </si>
+  <si>
+    <t>24HC01723-16S  _38</t>
+  </si>
+  <si>
+    <t>24HC01723-24D _10</t>
+  </si>
+  <si>
+    <t>24HC01723-18D_22,24HC01723-19D_22,24HC01723-25D_22</t>
+  </si>
+  <si>
+    <t>24HC01723-17D_11,24HC01723-20D  _11,24HC01723-21D_11,24HC01723-22D_11,24HC01723-23D_11,24HC01723-24D _27</t>
+  </si>
+  <si>
+    <t>24HC01723-18D_17,24HC01723-19D_17,24HC01723-25D_17</t>
+  </si>
+  <si>
+    <t>24HC01723-12S _50,24HC01723-13S_52,24HC01723-14S  _53,24HC01723-15S  _53</t>
+  </si>
+  <si>
+    <t>24HC01723-17D_46,24HC01723-18D_48,24HC01723-19D_48,24HC01723-20D  _46,24HC01723-21D_46,24HC01723-22D_46,24HC01723-23D_46,24HC01723-24D _50,24HC01723-25D_48</t>
+  </si>
+  <si>
+    <t>24HC01723-18D_19,24HC01723-19D_19,24HC01723-24D _34,24HC01723-25D_19</t>
+  </si>
+  <si>
+    <t>24HC01723-1S_2,24HC01723-2S _2,24HC01723-3S_2,24HC01723-4S _2,24HC01723-5S _2,24HC01723-6S _2,24HC01723-7S _2,24HC01723-8S  _2,24HC01723-9S _2,24HC01723-10S _2,24HC01723-11S  _2,24HC01723-12S _2,24HC01723-13S_2,24HC01723-14S  _2,24HC01723-15S  _2,24HC01723-16S  _2</t>
+  </si>
+  <si>
+    <t>24HC01723-24D _14</t>
+  </si>
+  <si>
+    <t>24HC01723-12S _71,24HC01723-13S_73,24HC01723-14S  _74,24HC01723-15S  _74</t>
+  </si>
+  <si>
+    <t>24HC01723-24D _12</t>
+  </si>
+  <si>
+    <t>24HC01723-17D_50,24HC01723-18D_51,24HC01723-19D_51,24HC01723-20D  _50,24HC01723-21D_50,24HC01723-22D_50,24HC01723-23D_50,24HC01723-24D _60,24HC01723-25D_51</t>
+  </si>
+  <si>
+    <t>24HC01723-1S_58,24HC01723-16S  _56</t>
+  </si>
+  <si>
+    <t>24HC01723-2S _59,24HC01723-3S_60,24HC01723-4S _60,24HC01723-5S _60,24HC01723-6S _61,24HC01723-7S _61,24HC01723-8S  _61,24HC01723-9S _62,24HC01723-10S _62,24HC01723-11S  _62</t>
+  </si>
+  <si>
+    <t>24HC01723-17D_37,24HC01723-18D_39,24HC01723-19D_39,24HC01723-20D  _37,24HC01723-21D_37,24HC01723-22D_37,24HC01723-23D_37,24HC01723-25D_39</t>
+  </si>
+  <si>
+    <t>24HC01723-17D_27,24HC01723-20D  _27,24HC01723-21D_27,24HC01723-22D_27,24HC01723-23D_27</t>
+  </si>
+  <si>
+    <t>4G Module</t>
   </si>
   <si>
     <t>Acetate Cloth Tape</t>
@@ -497,93 +506,63 @@
     <t>Adhesive</t>
   </si>
   <si>
-    <t>Anntenna cover</t>
-  </si>
-  <si>
-    <t>Antenna cover</t>
-  </si>
-  <si>
     <t>Back cover</t>
   </si>
   <si>
-    <t>Back cover component</t>
-  </si>
-  <si>
-    <t>Base Stand board</t>
-  </si>
-  <si>
     <t>Bearing</t>
   </si>
   <si>
     <t>Bottom cover</t>
   </si>
   <si>
-    <t>Bottom cover component</t>
-  </si>
-  <si>
-    <t>Bracket component</t>
-  </si>
-  <si>
     <t>Bracket cover</t>
   </si>
   <si>
     <t>Button</t>
   </si>
   <si>
-    <t>Camera cover component</t>
+    <t>Ceramic capacitor</t>
+  </si>
+  <si>
+    <t>Ceramics capacitor</t>
   </si>
   <si>
     <t>Crystal</t>
   </si>
   <si>
-    <t>Decorative cover</t>
-  </si>
-  <si>
-    <t>Decorative part</t>
-  </si>
-  <si>
     <t>EPE Foam</t>
   </si>
   <si>
-    <t>EPE foam</t>
+    <t>Electronic inductor</t>
+  </si>
+  <si>
+    <t>FFC Cable</t>
+  </si>
+  <si>
+    <t>FPC Connector</t>
+  </si>
+  <si>
+    <t>Filters</t>
   </si>
   <si>
     <t>Front cover</t>
   </si>
   <si>
-    <t>Front cover component</t>
-  </si>
-  <si>
     <t>Gear</t>
   </si>
   <si>
-    <t>Gift Box</t>
-  </si>
-  <si>
-    <t>Gift Box Inner</t>
-  </si>
-  <si>
-    <t>Installation label</t>
-  </si>
-  <si>
-    <t>Installation manual</t>
-  </si>
-  <si>
-    <t>LENS</t>
-  </si>
-  <si>
     <t>Light guide</t>
   </si>
   <si>
-    <t>Light guiding</t>
-  </si>
-  <si>
-    <t>Lower cover component</t>
+    <t>Light pipe</t>
   </si>
   <si>
     <t>Out Cover</t>
   </si>
   <si>
+    <t>Outer cover</t>
+  </si>
+  <si>
     <t>PET label</t>
   </si>
   <si>
@@ -596,19 +575,22 @@
     <t>Protective film</t>
   </si>
   <si>
+    <t>RJ45 Socket</t>
+  </si>
+  <si>
     <t>RJ45 waterproof connector</t>
   </si>
   <si>
-    <t>Rubber keypad</t>
-  </si>
-  <si>
-    <t>Rubber mat</t>
+    <t>Rubber Ring</t>
   </si>
   <si>
     <t>SD Cover</t>
   </si>
   <si>
-    <t>Screw bag(2_ST4×25</t>
+    <t>SD cover</t>
+  </si>
+  <si>
+    <t>SIM Socket</t>
   </si>
   <si>
     <t>Seal label</t>
@@ -617,15 +599,15 @@
     <t>Sealing ring</t>
   </si>
   <si>
-    <t>Shaft cover</t>
-  </si>
-  <si>
-    <t>Sheild cover</t>
+    <t>Sensor</t>
   </si>
   <si>
     <t>Shell cover</t>
   </si>
   <si>
+    <t>Thermal glue</t>
+  </si>
+  <si>
     <t>Top cover</t>
   </si>
   <si>
@@ -635,7 +617,7 @@
     <t>WIFI Module</t>
   </si>
   <si>
-    <t>WIFI antenna</t>
+    <t>White socket</t>
   </si>
   <si>
     <t>White sticker</t>
@@ -644,37 +626,52 @@
     <t>foam</t>
   </si>
   <si>
+    <t>73181500</t>
+  </si>
+  <si>
+    <t>85423900</t>
+  </si>
+  <si>
     <t>48114100</t>
   </si>
   <si>
+    <t>39269099</t>
+  </si>
+  <si>
     <t>85299090</t>
   </si>
   <si>
+    <t>48219010</t>
+  </si>
+  <si>
     <t>40169990</t>
   </si>
   <si>
-    <t>73181500</t>
-  </si>
-  <si>
-    <t>48219010</t>
-  </si>
-  <si>
     <t>85322400</t>
   </si>
   <si>
     <t>48191010</t>
   </si>
   <si>
+    <t>85444220</t>
+  </si>
+  <si>
+    <t>85365090</t>
+  </si>
+  <si>
+    <t>85051110</t>
+  </si>
+  <si>
+    <t>85229000</t>
+  </si>
+  <si>
     <t>39232910</t>
   </si>
   <si>
-    <t>85229000</t>
-  </si>
-  <si>
-    <t>85423900</t>
-  </si>
-  <si>
-    <t>85044090</t>
+    <t>85366990</t>
+  </si>
+  <si>
+    <t>85299000</t>
   </si>
 </sst>
 </file>
@@ -3524,7 +3521,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3559,11 +3556,11 @@
       <c r="A2" t="s">
         <v>105</v>
       </c>
-      <c r="B2" t="s">
-        <v>157</v>
+      <c r="B2">
+        <v>184750</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -3572,15 +3569,15 @@
         <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>106</v>
       </c>
-      <c r="B3" t="s">
-        <v>158</v>
+      <c r="B3">
+        <v>240667</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -3592,15 +3589,15 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>107</v>
       </c>
-      <c r="B4" t="s">
-        <v>159</v>
+      <c r="B4">
+        <v>262250</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3612,15 +3609,15 @@
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>108</v>
       </c>
-      <c r="B5" t="s">
-        <v>160</v>
+      <c r="B5">
+        <v>264250</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3632,15 +3629,15 @@
         <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>109</v>
       </c>
-      <c r="B6" t="s">
-        <v>161</v>
+      <c r="B6">
+        <v>684510</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -3652,15 +3649,15 @@
         <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>110</v>
       </c>
-      <c r="B7" t="s">
-        <v>162</v>
+      <c r="B7">
+        <v>708510</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -3672,15 +3669,15 @@
         <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>111</v>
       </c>
-      <c r="B8" t="s">
-        <v>163</v>
+      <c r="B8">
+        <v>716510</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -3692,15 +3689,15 @@
         <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>112</v>
       </c>
-      <c r="B9" t="s">
-        <v>164</v>
+      <c r="B9">
+        <v>2590000</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -3712,18 +3709,18 @@
         <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>113</v>
       </c>
-      <c r="B10" t="s">
-        <v>165</v>
+      <c r="B10">
+        <v>7066166</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>10</v>
@@ -3732,15 +3729,15 @@
         <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>114</v>
       </c>
-      <c r="B11" t="s">
-        <v>166</v>
+      <c r="B11">
+        <v>17698247</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -3752,7 +3749,7 @@
         <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3760,7 +3757,7 @@
         <v>115</v>
       </c>
       <c r="B12" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -3772,7 +3769,7 @@
         <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3780,10 +3777,10 @@
         <v>116</v>
       </c>
       <c r="B13" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D13">
         <v>10</v>
@@ -3792,7 +3789,7 @@
         <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3800,7 +3797,7 @@
         <v>117</v>
       </c>
       <c r="B14" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -3812,7 +3809,7 @@
         <v>18</v>
       </c>
       <c r="F14" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3820,7 +3817,7 @@
         <v>118</v>
       </c>
       <c r="B15" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -3832,7 +3829,7 @@
         <v>18</v>
       </c>
       <c r="F15" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3840,7 +3837,7 @@
         <v>119</v>
       </c>
       <c r="B16" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -3852,7 +3849,7 @@
         <v>18</v>
       </c>
       <c r="F16" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3860,10 +3857,10 @@
         <v>120</v>
       </c>
       <c r="B17" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D17">
         <v>10</v>
@@ -3872,7 +3869,7 @@
         <v>18</v>
       </c>
       <c r="F17" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3880,7 +3877,7 @@
         <v>121</v>
       </c>
       <c r="B18" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -3892,7 +3889,7 @@
         <v>18</v>
       </c>
       <c r="F18" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3900,7 +3897,7 @@
         <v>122</v>
       </c>
       <c r="B19" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -3912,7 +3909,7 @@
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3920,10 +3917,10 @@
         <v>123</v>
       </c>
       <c r="B20" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C20">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <v>10</v>
@@ -3932,7 +3929,7 @@
         <v>18</v>
       </c>
       <c r="F20" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3940,19 +3937,19 @@
         <v>124</v>
       </c>
       <c r="B21" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C21">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>10</v>
       </c>
       <c r="E21">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F21" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3960,7 +3957,7 @@
         <v>125</v>
       </c>
       <c r="B22" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -3972,7 +3969,7 @@
         <v>18</v>
       </c>
       <c r="F22" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3980,10 +3977,10 @@
         <v>126</v>
       </c>
       <c r="B23" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C23">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>10</v>
@@ -4000,10 +3997,10 @@
         <v>127</v>
       </c>
       <c r="B24" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D24">
         <v>10</v>
@@ -4012,7 +4009,7 @@
         <v>18</v>
       </c>
       <c r="F24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4020,10 +4017,10 @@
         <v>128</v>
       </c>
       <c r="B25" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C25">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>10</v>
@@ -4032,7 +4029,7 @@
         <v>18</v>
       </c>
       <c r="F25" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -4040,19 +4037,19 @@
         <v>129</v>
       </c>
       <c r="B26" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C26">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>10</v>
       </c>
       <c r="E26">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F26" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -4060,10 +4057,10 @@
         <v>130</v>
       </c>
       <c r="B27" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C27">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <v>10</v>
@@ -4072,7 +4069,7 @@
         <v>18</v>
       </c>
       <c r="F27" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4080,19 +4077,19 @@
         <v>131</v>
       </c>
       <c r="B28" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C28">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <v>10</v>
       </c>
       <c r="E28">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F28" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -4100,7 +4097,7 @@
         <v>132</v>
       </c>
       <c r="B29" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -4112,7 +4109,7 @@
         <v>18</v>
       </c>
       <c r="F29" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4120,7 +4117,7 @@
         <v>133</v>
       </c>
       <c r="B30" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -4132,7 +4129,7 @@
         <v>18</v>
       </c>
       <c r="F30" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -4140,7 +4137,7 @@
         <v>134</v>
       </c>
       <c r="B31" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -4152,7 +4149,7 @@
         <v>18</v>
       </c>
       <c r="F31" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4160,10 +4157,10 @@
         <v>135</v>
       </c>
       <c r="B32" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C32">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D32">
         <v>10</v>
@@ -4172,7 +4169,7 @@
         <v>18</v>
       </c>
       <c r="F32" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -4180,7 +4177,7 @@
         <v>136</v>
       </c>
       <c r="B33" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -4192,7 +4189,7 @@
         <v>18</v>
       </c>
       <c r="F33" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4200,7 +4197,7 @@
         <v>137</v>
       </c>
       <c r="B34" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -4209,10 +4206,10 @@
         <v>10</v>
       </c>
       <c r="E34">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F34" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4220,7 +4217,7 @@
         <v>138</v>
       </c>
       <c r="B35" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -4232,7 +4229,7 @@
         <v>18</v>
       </c>
       <c r="F35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -4240,7 +4237,7 @@
         <v>139</v>
       </c>
       <c r="B36" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -4252,7 +4249,7 @@
         <v>18</v>
       </c>
       <c r="F36" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -4260,7 +4257,7 @@
         <v>140</v>
       </c>
       <c r="B37" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -4272,7 +4269,7 @@
         <v>18</v>
       </c>
       <c r="F37" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -4280,7 +4277,7 @@
         <v>141</v>
       </c>
       <c r="B38" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -4292,7 +4289,7 @@
         <v>18</v>
       </c>
       <c r="F38" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -4300,7 +4297,7 @@
         <v>142</v>
       </c>
       <c r="B39" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -4312,7 +4309,7 @@
         <v>18</v>
       </c>
       <c r="F39" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -4320,7 +4317,7 @@
         <v>143</v>
       </c>
       <c r="B40" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -4332,7 +4329,7 @@
         <v>18</v>
       </c>
       <c r="F40" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -4340,7 +4337,7 @@
         <v>144</v>
       </c>
       <c r="B41" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -4352,7 +4349,7 @@
         <v>18</v>
       </c>
       <c r="F41" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -4360,7 +4357,7 @@
         <v>145</v>
       </c>
       <c r="B42" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -4372,7 +4369,7 @@
         <v>18</v>
       </c>
       <c r="F42" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -4380,10 +4377,10 @@
         <v>146</v>
       </c>
       <c r="B43" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C43">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D43">
         <v>10</v>
@@ -4392,7 +4389,7 @@
         <v>18</v>
       </c>
       <c r="F43" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -4400,7 +4397,7 @@
         <v>147</v>
       </c>
       <c r="B44" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -4412,7 +4409,7 @@
         <v>18</v>
       </c>
       <c r="F44" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -4420,10 +4417,10 @@
         <v>148</v>
       </c>
       <c r="B45" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D45">
         <v>10</v>
@@ -4432,7 +4429,7 @@
         <v>18</v>
       </c>
       <c r="F45" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -4440,7 +4437,7 @@
         <v>149</v>
       </c>
       <c r="B46" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -4452,7 +4449,7 @@
         <v>18</v>
       </c>
       <c r="F46" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -4460,7 +4457,7 @@
         <v>150</v>
       </c>
       <c r="B47" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -4472,7 +4469,7 @@
         <v>18</v>
       </c>
       <c r="F47" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -4480,7 +4477,7 @@
         <v>151</v>
       </c>
       <c r="B48" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -4492,7 +4489,7 @@
         <v>18</v>
       </c>
       <c r="F48" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -4500,10 +4497,10 @@
         <v>152</v>
       </c>
       <c r="B49" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C49">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D49">
         <v>10</v>
@@ -4512,7 +4509,7 @@
         <v>18</v>
       </c>
       <c r="F49" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -4520,7 +4517,7 @@
         <v>153</v>
       </c>
       <c r="B50" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -4532,7 +4529,7 @@
         <v>18</v>
       </c>
       <c r="F50" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -4540,10 +4537,10 @@
         <v>154</v>
       </c>
       <c r="B51" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D51">
         <v>10</v>
@@ -4552,7 +4549,7 @@
         <v>18</v>
       </c>
       <c r="F51" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -4560,19 +4557,19 @@
         <v>155</v>
       </c>
       <c r="B52" t="s">
+        <v>199</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>10</v>
+      </c>
+      <c r="E52">
+        <v>18</v>
+      </c>
+      <c r="F52" t="s">
         <v>207</v>
-      </c>
-      <c r="C52">
-        <v>15</v>
-      </c>
-      <c r="D52">
-        <v>10</v>
-      </c>
-      <c r="E52">
-        <v>18</v>
-      </c>
-      <c r="F52" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -4580,7 +4577,7 @@
         <v>156</v>
       </c>
       <c r="B53" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -4592,7 +4589,47 @@
         <v>18</v>
       </c>
       <c r="F53" t="s">
-        <v>210</v>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>157</v>
+      </c>
+      <c r="B54" t="s">
+        <v>201</v>
+      </c>
+      <c r="C54">
+        <v>10</v>
+      </c>
+      <c r="D54">
+        <v>10</v>
+      </c>
+      <c r="E54">
+        <v>18</v>
+      </c>
+      <c r="F54" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>158</v>
+      </c>
+      <c r="B55" t="s">
+        <v>202</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>10</v>
+      </c>
+      <c r="E55">
+        <v>18</v>
+      </c>
+      <c r="F55" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
